--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Mulesoft\Training\Project\Bi-Directional-SFDC-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EFF8952-84FD-4AE1-85CA-B0F33916E500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716BCD0-15DB-4213-9977-45FFCB72A320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1E3F37DB-010F-456E-987C-FCEEF9607820}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{1E3F37DB-010F-456E-987C-FCEEF9607820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
   <si>
     <t>customerId</t>
   </si>
@@ -327,6 +327,90 @@
   </si>
   <si>
     <t>01-01-2000T12:00:25</t>
+  </si>
+  <si>
+    <t>Customer1017</t>
+  </si>
+  <si>
+    <t>Customer1018</t>
+  </si>
+  <si>
+    <t>Customer1019</t>
+  </si>
+  <si>
+    <t>Customer1020</t>
+  </si>
+  <si>
+    <t>User1017</t>
+  </si>
+  <si>
+    <t>User1018</t>
+  </si>
+  <si>
+    <t>User1019</t>
+  </si>
+  <si>
+    <t>User1020</t>
+  </si>
+  <si>
+    <t>House 1017</t>
+  </si>
+  <si>
+    <t>House 1018</t>
+  </si>
+  <si>
+    <t>House 1019</t>
+  </si>
+  <si>
+    <t>House 1020</t>
+  </si>
+  <si>
+    <t>email10011</t>
+  </si>
+  <si>
+    <t>email10012</t>
+  </si>
+  <si>
+    <t>email10013</t>
+  </si>
+  <si>
+    <t>email10014</t>
+  </si>
+  <si>
+    <t>01-01-2000T12:00:26</t>
+  </si>
+  <si>
+    <t>01-01-2000T12:00:27</t>
+  </si>
+  <si>
+    <t>01-01-2000T12:00:28</t>
+  </si>
+  <si>
+    <t>01-01-2000T12:00:29</t>
+  </si>
+  <si>
+    <t>email10013@gmail.com</t>
+  </si>
+  <si>
+    <t>email10014@gmail.com</t>
+  </si>
+  <si>
+    <t>email10015@gmail.com</t>
+  </si>
+  <si>
+    <t>email10016@gmail.com</t>
+  </si>
+  <si>
+    <t>email10017@gmail.com</t>
+  </si>
+  <si>
+    <t>email10018@gmail.com</t>
+  </si>
+  <si>
+    <t>email10019@gmail.com</t>
+  </si>
+  <si>
+    <t>email10020@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -755,17 +839,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F206BF53-2BF4-4B2C-ADE8-00CAC35A2A90}">
-  <dimension ref="B1:K42"/>
+  <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
@@ -1208,7 +1292,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3">
         <v>36538</v>
@@ -1219,7 +1303,7 @@
       <c r="H16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="8" t="b">
+      <c r="I16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1240,7 +1324,7 @@
         <v>91</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="F17" s="3">
         <v>36539</v>
@@ -1251,8 +1335,8 @@
       <c r="H17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="8" t="b">
-        <v>0</v>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>72</v>
@@ -1272,7 +1356,7 @@
         <v>92</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F18" s="3">
         <v>36540</v>
@@ -1283,8 +1367,8 @@
       <c r="H18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="8" t="b">
-        <v>0</v>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>73</v>
@@ -1304,7 +1388,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F19" s="3">
         <v>36541</v>
@@ -1315,14 +1399,142 @@
       <c r="H19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="8" t="b">
-        <v>0</v>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="3">
+        <v>36542</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="3">
+        <v>36543</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="3">
+        <v>36544</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="3">
+        <v>36545</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
@@ -1412,7 +1624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1470,7 +1682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1528,7 +1740,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>82</v>
       </c>
@@ -1615,7 +1827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
@@ -1644,7 +1856,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>84</v>
       </c>
@@ -1673,7 +1885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>85</v>
       </c>
@@ -1700,6 +1912,125 @@
       </c>
       <c r="J42" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="3">
+        <v>36542</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="3">
+        <v>36543</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="3">
+        <v>36544</v>
+      </c>
+      <c r="G45" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="3">
+        <v>36545</v>
+      </c>
+      <c r="G46" s="1">
+        <v>9988776670</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1729,15 +2060,19 @@
     <hyperlink ref="E35:E38" r:id="rId22" display="email1001@gmail.com" xr:uid="{33273703-1BA5-45D3-AAAE-5B47DFE3A9C8}"/>
     <hyperlink ref="E38" r:id="rId23" xr:uid="{B7812C9F-4855-4331-985E-9B6C7195DB1B}"/>
     <hyperlink ref="E16" r:id="rId24" xr:uid="{94F4F79B-19AE-40B6-993B-7266226B94A9}"/>
-    <hyperlink ref="E17" r:id="rId25" xr:uid="{B2A46302-6182-441B-9990-055A4F7BF077}"/>
-    <hyperlink ref="E18" r:id="rId26" xr:uid="{97B54954-ABB0-4DB5-B57F-F70B11C0FF0E}"/>
-    <hyperlink ref="E19" r:id="rId27" xr:uid="{D913A238-C02D-49BC-98FB-6451640F5FF0}"/>
-    <hyperlink ref="E39" r:id="rId28" xr:uid="{90A8B45A-A9E5-415F-AE86-5F48ABB66162}"/>
-    <hyperlink ref="E40" r:id="rId29" xr:uid="{419D3751-BC76-43FB-90C2-B7B2F44D6825}"/>
-    <hyperlink ref="E41" r:id="rId30" xr:uid="{4356F8A8-9118-493A-9245-9CB3F1F1F6E0}"/>
-    <hyperlink ref="E42" r:id="rId31" xr:uid="{F1DDDC1D-6471-4E61-9FB4-60F62603685F}"/>
+    <hyperlink ref="E39" r:id="rId25" xr:uid="{90A8B45A-A9E5-415F-AE86-5F48ABB66162}"/>
+    <hyperlink ref="E40" r:id="rId26" xr:uid="{419D3751-BC76-43FB-90C2-B7B2F44D6825}"/>
+    <hyperlink ref="E41" r:id="rId27" xr:uid="{4356F8A8-9118-493A-9245-9CB3F1F1F6E0}"/>
+    <hyperlink ref="E42" r:id="rId28" xr:uid="{F1DDDC1D-6471-4E61-9FB4-60F62603685F}"/>
+    <hyperlink ref="E17" r:id="rId29" xr:uid="{16EE062D-7420-4ED0-9846-44BA99D3AD9E}"/>
+    <hyperlink ref="E18" r:id="rId30" xr:uid="{1A963D4A-0268-486A-B3CF-901DC7E2C05F}"/>
+    <hyperlink ref="E19" r:id="rId31" xr:uid="{F7188A37-F2B6-46C9-96CC-6A2CE0EA317C}"/>
+    <hyperlink ref="E20" r:id="rId32" xr:uid="{8B2056E9-CD72-4E91-B7B5-5562B1B05377}"/>
+    <hyperlink ref="E21" r:id="rId33" xr:uid="{AFEEC0C6-1459-43F8-94BD-A7D7434A2B0B}"/>
+    <hyperlink ref="E22" r:id="rId34" xr:uid="{8596E5D3-E9AD-4DCD-8FB7-06DC2A38B565}"/>
+    <hyperlink ref="E23" r:id="rId35" xr:uid="{745D4F23-C6D8-49EB-94E2-97D5C9893BE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Mulesoft\Training\Project\Bi-Directional-SFDC-DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Mulesoft\Training\Project\Bi-Directional-SFDC-DB\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716BCD0-15DB-4213-9977-45FFCB72A320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D2D376-148A-4D7C-B880-97FD99CFB628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{1E3F37DB-010F-456E-987C-FCEEF9607820}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="99">
   <si>
     <t>customerId</t>
   </si>
@@ -113,12 +113,6 @@
     <t>User1004</t>
   </si>
   <si>
-    <t>User1005</t>
-  </si>
-  <si>
-    <t>User1006</t>
-  </si>
-  <si>
     <t>User1007</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>Customer1015</t>
   </si>
   <si>
-    <t>Customer1016</t>
-  </si>
-  <si>
     <t>User1013</t>
   </si>
   <si>
@@ -302,9 +293,6 @@
     <t>User1015</t>
   </si>
   <si>
-    <t>User1016</t>
-  </si>
-  <si>
     <t>House 1013</t>
   </si>
   <si>
@@ -314,9 +302,6 @@
     <t>House 1015</t>
   </si>
   <si>
-    <t>House 1016</t>
-  </si>
-  <si>
     <t>01-01-2000T12:00:22</t>
   </si>
   <si>
@@ -329,88 +314,22 @@
     <t>01-01-2000T12:00:25</t>
   </si>
   <si>
-    <t>Customer1017</t>
-  </si>
-  <si>
-    <t>Customer1018</t>
-  </si>
-  <si>
-    <t>Customer1019</t>
-  </si>
-  <si>
-    <t>Customer1020</t>
-  </si>
-  <si>
-    <t>User1017</t>
-  </si>
-  <si>
-    <t>User1018</t>
-  </si>
-  <si>
-    <t>User1019</t>
-  </si>
-  <si>
-    <t>User1020</t>
-  </si>
-  <si>
-    <t>House 1017</t>
-  </si>
-  <si>
-    <t>House 1018</t>
-  </si>
-  <si>
-    <t>House 1019</t>
-  </si>
-  <si>
-    <t>House 1020</t>
-  </si>
-  <si>
-    <t>email10011</t>
-  </si>
-  <si>
-    <t>email10012</t>
-  </si>
-  <si>
-    <t>email10013</t>
-  </si>
-  <si>
-    <t>email10014</t>
-  </si>
-  <si>
     <t>01-01-2000T12:00:26</t>
   </si>
   <si>
-    <t>01-01-2000T12:00:27</t>
-  </si>
-  <si>
-    <t>01-01-2000T12:00:28</t>
-  </si>
-  <si>
-    <t>01-01-2000T12:00:29</t>
-  </si>
-  <si>
-    <t>email10013@gmail.com</t>
-  </si>
-  <si>
-    <t>email10014@gmail.com</t>
-  </si>
-  <si>
-    <t>email10015@gmail.com</t>
-  </si>
-  <si>
-    <t>email10016@gmail.com</t>
-  </si>
-  <si>
-    <t>email10017@gmail.com</t>
-  </si>
-  <si>
-    <t>email10018@gmail.com</t>
-  </si>
-  <si>
-    <t>email10019@gmail.com</t>
-  </si>
-  <si>
-    <t>email10020@gmail.com</t>
+    <t>email1013@gmail.com</t>
+  </si>
+  <si>
+    <t>email1014@gmail.com</t>
+  </si>
+  <si>
+    <t>email1015@gmail.com</t>
+  </si>
+  <si>
+    <t>User100501</t>
+  </si>
+  <si>
+    <t>User100602</t>
   </si>
 </sst>
 </file>
@@ -839,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F206BF53-2BF4-4B2C-ADE8-00CAC35A2A90}">
-  <dimension ref="B1:K46"/>
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,10 +778,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
@@ -905,10 +824,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3">
         <v>36526</v>
@@ -917,16 +836,16 @@
         <v>9988776655</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
@@ -937,10 +856,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3">
         <v>36527</v>
@@ -949,16 +868,16 @@
         <v>9988776656</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
@@ -969,10 +888,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="3">
         <v>36528</v>
@@ -981,16 +900,16 @@
         <v>9988776657</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
@@ -1001,10 +920,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3">
         <v>36529</v>
@@ -1013,16 +932,16 @@
         <v>9988776658</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
@@ -1030,13 +949,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3">
         <v>36530</v>
@@ -1045,16 +964,16 @@
         <v>9988776659</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
@@ -1062,13 +981,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3">
         <v>36531</v>
@@ -1077,16 +996,16 @@
         <v>9988776660</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
@@ -1094,13 +1013,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3">
         <v>36532</v>
@@ -1109,16 +1028,16 @@
         <v>9988776661</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
@@ -1126,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3">
         <v>36533</v>
@@ -1141,16 +1060,16 @@
         <v>9988776662</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
@@ -1158,13 +1077,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3">
         <v>36534</v>
@@ -1173,16 +1092,16 @@
         <v>9988776663</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
@@ -1190,13 +1109,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3">
         <v>36535</v>
@@ -1205,16 +1124,16 @@
         <v>9988776664</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
@@ -1222,31 +1141,31 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3">
         <v>36536</v>
       </c>
       <c r="G14" s="1">
-        <v>9988776665</v>
+        <v>9988776664</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
@@ -1254,288 +1173,188 @@
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3">
         <v>36537</v>
       </c>
       <c r="G15" s="1">
-        <v>9988776666</v>
+        <v>9988776664</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>118</v>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F16" s="3">
         <v>36538</v>
       </c>
       <c r="G16" s="1">
-        <v>9988776667</v>
+        <v>9988776664</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>119</v>
+      <c r="E17" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F17" s="3">
         <v>36539</v>
       </c>
       <c r="G17" s="1">
-        <v>9988776668</v>
+        <v>9988776664</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>120</v>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F18" s="3">
         <v>36540</v>
       </c>
       <c r="G18" s="1">
-        <v>9988776669</v>
+        <v>9988776664</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="3">
-        <v>36541</v>
-      </c>
-      <c r="G19" s="1">
-        <v>9988776670</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="3">
-        <v>36542</v>
-      </c>
-      <c r="G20" s="1">
-        <v>9988776670</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="3">
-        <v>36543</v>
-      </c>
-      <c r="G21" s="1">
-        <v>9988776670</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="3">
-        <v>36544</v>
-      </c>
-      <c r="G22" s="1">
-        <v>9988776670</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="3">
-        <v>36545</v>
-      </c>
-      <c r="G23" s="1">
-        <v>9988776670</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
@@ -1565,6 +1384,9 @@
       <c r="J30" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K30" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
@@ -1574,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" s="3">
         <v>36526</v>
@@ -1586,13 +1408,13 @@
         <v>9988776655</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
@@ -1603,10 +1425,10 @@
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F32" s="3">
         <v>36527</v>
@@ -1615,13 +1437,13 @@
         <v>9988776656</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
@@ -1632,10 +1454,10 @@
         <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" s="3">
         <v>36528</v>
@@ -1644,13 +1466,13 @@
         <v>9988776657</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
@@ -1661,10 +1483,10 @@
         <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F34" s="3">
         <v>36529</v>
@@ -1673,406 +1495,432 @@
         <v>9988776658</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F35" s="3">
-        <v>36534</v>
+        <v>36530</v>
       </c>
       <c r="G35" s="1">
-        <v>9988776663</v>
+        <v>9988776659</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F36" s="3">
-        <v>36535</v>
+        <v>36531</v>
       </c>
       <c r="G36" s="1">
-        <v>9988776664</v>
+        <v>9988776660</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F37" s="3">
-        <v>36536</v>
+        <v>36532</v>
       </c>
       <c r="G37" s="1">
-        <v>9988776665</v>
+        <v>9988776661</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F38" s="3">
-        <v>36537</v>
+        <v>36533</v>
       </c>
       <c r="G38" s="1">
-        <v>9988776666</v>
+        <v>9988776662</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F39" s="3">
-        <v>36538</v>
+        <v>36534</v>
       </c>
       <c r="G39" s="1">
-        <v>9988776667</v>
+        <v>9988776663</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F40" s="3">
-        <v>36539</v>
+        <v>36535</v>
       </c>
       <c r="G40" s="1">
-        <v>9988776668</v>
+        <v>9988776664</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F41" s="3">
-        <v>36540</v>
+        <v>36536</v>
       </c>
       <c r="G41" s="1">
-        <v>9988776669</v>
+        <v>9988776664</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F42" s="3">
-        <v>36541</v>
+        <v>36537</v>
       </c>
       <c r="G42" s="1">
-        <v>9988776670</v>
+        <v>9988776664</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F43" s="3">
-        <v>36542</v>
+        <v>36538</v>
       </c>
       <c r="G43" s="1">
-        <v>9988776670</v>
+        <v>9988776664</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>111</v>
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F44" s="3">
-        <v>36543</v>
+        <v>36539</v>
       </c>
       <c r="G44" s="1">
-        <v>9988776670</v>
+        <v>9988776664</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F45" s="3">
-        <v>36544</v>
+        <v>36540</v>
       </c>
       <c r="G45" s="1">
-        <v>9988776670</v>
+        <v>9988776664</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="3">
-        <v>36545</v>
-      </c>
-      <c r="G46" s="1">
-        <v>9988776670</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{2400F9FA-A346-4482-9B73-E8732198E191}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{20ED7BEC-BA08-4022-A002-E346E4DE243C}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{CAC36A6D-D374-4D6B-B73B-133D6110BBFE}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{2E84D657-5FDA-4E06-BBEA-8C8BBADD066D}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{AF39247C-F7B2-4F65-A3E6-663E157E2EDD}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{12FFFAD9-7BE1-4161-8C8F-E39D1C928046}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{9B16F109-87B5-4F60-AC32-D0137596C353}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{104A0039-5531-437C-A720-8BF6DA9BB593}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{BFE1E88B-35DF-46DE-B516-0862CCEE3D76}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{A6995DF5-19B3-479A-B9B9-ADF04D9C2490}"/>
-    <hyperlink ref="E14" r:id="rId11" xr:uid="{10EF407C-0534-4FEB-9774-19AFB6B37B69}"/>
-    <hyperlink ref="E5:E15" r:id="rId12" display="email1001@gmail.com" xr:uid="{E499C8E2-83E3-4559-9AD4-A080E0C6F28A}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{019125AB-0875-433A-9517-3C97518F7434}"/>
-    <hyperlink ref="E31" r:id="rId14" xr:uid="{7EB71E61-851F-459A-9B4F-43857E8A0C13}"/>
-    <hyperlink ref="E32" r:id="rId15" xr:uid="{BB5D7E9D-AA27-4F4A-A12C-AD993E2315C8}"/>
-    <hyperlink ref="E33" r:id="rId16" xr:uid="{E489DCC4-8FED-425D-B6DB-0D9C8E6443C1}"/>
-    <hyperlink ref="E34" r:id="rId17" xr:uid="{85FC0B3E-FC2D-49BB-8FD5-878B2AA24BB1}"/>
-    <hyperlink ref="E32:E34" r:id="rId18" display="email1001@gmail.com" xr:uid="{BB59259A-95B1-4701-9200-A4668ECAC68B}"/>
-    <hyperlink ref="E35" r:id="rId19" xr:uid="{5CE06F51-CB89-43F5-9D3A-3FCE5DE9BF25}"/>
-    <hyperlink ref="E36" r:id="rId20" xr:uid="{976A3982-0465-4C09-832E-1FD5312A0C8E}"/>
-    <hyperlink ref="E37" r:id="rId21" xr:uid="{ADE2A533-F09B-46BC-9C55-D8676EE0D24B}"/>
-    <hyperlink ref="E35:E38" r:id="rId22" display="email1001@gmail.com" xr:uid="{33273703-1BA5-45D3-AAAE-5B47DFE3A9C8}"/>
-    <hyperlink ref="E38" r:id="rId23" xr:uid="{B7812C9F-4855-4331-985E-9B6C7195DB1B}"/>
-    <hyperlink ref="E16" r:id="rId24" xr:uid="{94F4F79B-19AE-40B6-993B-7266226B94A9}"/>
-    <hyperlink ref="E39" r:id="rId25" xr:uid="{90A8B45A-A9E5-415F-AE86-5F48ABB66162}"/>
-    <hyperlink ref="E40" r:id="rId26" xr:uid="{419D3751-BC76-43FB-90C2-B7B2F44D6825}"/>
-    <hyperlink ref="E41" r:id="rId27" xr:uid="{4356F8A8-9118-493A-9245-9CB3F1F1F6E0}"/>
-    <hyperlink ref="E42" r:id="rId28" xr:uid="{F1DDDC1D-6471-4E61-9FB4-60F62603685F}"/>
-    <hyperlink ref="E17" r:id="rId29" xr:uid="{16EE062D-7420-4ED0-9846-44BA99D3AD9E}"/>
-    <hyperlink ref="E18" r:id="rId30" xr:uid="{1A963D4A-0268-486A-B3CF-901DC7E2C05F}"/>
-    <hyperlink ref="E19" r:id="rId31" xr:uid="{F7188A37-F2B6-46C9-96CC-6A2CE0EA317C}"/>
-    <hyperlink ref="E20" r:id="rId32" xr:uid="{8B2056E9-CD72-4E91-B7B5-5562B1B05377}"/>
-    <hyperlink ref="E21" r:id="rId33" xr:uid="{AFEEC0C6-1459-43F8-94BD-A7D7434A2B0B}"/>
-    <hyperlink ref="E22" r:id="rId34" xr:uid="{8596E5D3-E9AD-4DCD-8FB7-06DC2A38B565}"/>
-    <hyperlink ref="E23" r:id="rId35" xr:uid="{745D4F23-C6D8-49EB-94E2-97D5C9893BE8}"/>
+    <hyperlink ref="E5:E15" r:id="rId1" display="email1001@gmail.com" xr:uid="{E499C8E2-83E3-4559-9AD4-A080E0C6F28A}"/>
+    <hyperlink ref="E39:E42" r:id="rId2" display="email1001@gmail.com" xr:uid="{33273703-1BA5-45D3-AAAE-5B47DFE3A9C8}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{A6995DF5-19B3-479A-B9B9-ADF04D9C2490}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{BFE1E88B-35DF-46DE-B516-0862CCEE3D76}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{104A0039-5531-437C-A720-8BF6DA9BB593}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{9B16F109-87B5-4F60-AC32-D0137596C353}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{12FFFAD9-7BE1-4161-8C8F-E39D1C928046}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{AF39247C-F7B2-4F65-A3E6-663E157E2EDD}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{2E84D657-5FDA-4E06-BBEA-8C8BBADD066D}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{CAC36A6D-D374-4D6B-B73B-133D6110BBFE}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{20ED7BEC-BA08-4022-A002-E346E4DE243C}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{2400F9FA-A346-4482-9B73-E8732198E191}"/>
+    <hyperlink ref="E32:E40" r:id="rId13" display="email1001@gmail.com" xr:uid="{8D0FBA01-35E8-49BE-9C6F-ED0B09B00AB6}"/>
+    <hyperlink ref="E40" r:id="rId14" xr:uid="{A158B71F-C5C2-4C96-A9FF-0998A1B0CCF5}"/>
+    <hyperlink ref="E39" r:id="rId15" xr:uid="{1B74C177-3C5D-4BB5-8BED-414F9B15C2E9}"/>
+    <hyperlink ref="E38" r:id="rId16" xr:uid="{C7F2EEEB-9CA5-49EE-9A46-9B15976A6CDE}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{048C5961-C02E-4997-BF9C-DCF1AC19948C}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{DC367484-4BBC-4E5A-AEB4-20CAC72A7E65}"/>
+    <hyperlink ref="E33" r:id="rId19" xr:uid="{622AD034-2DD7-4991-9D7E-71E2E0414EDC}"/>
+    <hyperlink ref="E32" r:id="rId20" xr:uid="{C02A5435-23CA-4A9D-A03D-9B9C6D2AA9E5}"/>
+    <hyperlink ref="E31" r:id="rId21" xr:uid="{8E27051A-D1A7-4B6B-839D-969798357B56}"/>
+    <hyperlink ref="E15:E18" r:id="rId22" display="email1001@gmail.com" xr:uid="{4A877F78-A810-4D7C-BCA0-EAA63FF2B2E1}"/>
+    <hyperlink ref="E14" r:id="rId23" xr:uid="{5AD5623B-9B52-4158-A32C-1D45AAAFE254}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{DB68140E-A2AC-4D2E-AE16-CEBBA64434A0}"/>
+    <hyperlink ref="E16" r:id="rId25" xr:uid="{9EF5E709-6500-432F-993E-E42D9E9CB2E7}"/>
+    <hyperlink ref="E17" r:id="rId26" xr:uid="{83BEB5DF-0B94-49E3-9132-88F5B5249E98}"/>
+    <hyperlink ref="E18" r:id="rId27" xr:uid="{CFA40D94-C827-4859-851D-93B3CE814618}"/>
+    <hyperlink ref="E35:E36" r:id="rId28" display="email1001@gmail.com" xr:uid="{4048707A-A822-4E88-BAC5-6DD46E6818A2}"/>
+    <hyperlink ref="E36" r:id="rId29" xr:uid="{EF713D2E-A5BC-49AF-8E02-C7F8CA131FB0}"/>
+    <hyperlink ref="E35" r:id="rId30" xr:uid="{0105B790-4995-40E4-8103-36C72CBB7817}"/>
+    <hyperlink ref="E41:E42" r:id="rId31" display="email1001@gmail.com" xr:uid="{CEC6C49A-EDDF-4258-BFE4-95960BA9E765}"/>
+    <hyperlink ref="E42:E45" r:id="rId32" display="email1001@gmail.com" xr:uid="{B69B7C60-82E5-4311-BB25-EBB236ABEC03}"/>
+    <hyperlink ref="E41" r:id="rId33" xr:uid="{60797EFA-473A-4BA3-86C7-BE80E9629C91}"/>
+    <hyperlink ref="E42" r:id="rId34" xr:uid="{621A882F-11A4-437D-9863-559B5FB5DC82}"/>
+    <hyperlink ref="E43" r:id="rId35" xr:uid="{CA0A9517-F6C0-4424-87EA-092FC8006122}"/>
+    <hyperlink ref="E44" r:id="rId36" xr:uid="{A0E59D46-5C34-4E39-80FB-71BA5F744467}"/>
+    <hyperlink ref="E45" r:id="rId37" xr:uid="{F34131EC-13D0-4BCB-8267-647F8A74ADFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>